--- a/similarities/split_global/harmonic_similarity_timestamps_363.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_363.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:08.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:01:47.640000', '0:01:48.540000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+          <t>('0:00:21.722199', '0:00:26.760929')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:20.440000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:23.040000')]</t>
+          <t>('0:00:30.760000', '0:00:37.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:17.580000')]</t>
+          <t>('0:01:04.680000', '0:01:10.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=30.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:56.600000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:03.640000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:41.840000', '0:00:45.380000'), ('0:01:06.040000', '0:01:11.560000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:45.840000', '0:02:00.500000'), ('0:01:56.800000', '0:02:12.880000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:01.980000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:10.540000', '0:00:13.400000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:54.520000', '0:01:55.660000'), ('0:01:51.920000', '0:01:55.360000')]</t>
+          <t>('0:00:00.440395', '0:00:09.607823')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min/b3', 'B:7', 'E'], ['A/3', 'D', 'A']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.520000', '0:00:16.540000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:12.540000', '0:00:14.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:44.913000', '0:00:50.190000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:58.916720', '0:01:03.328512')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=11.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=44.913', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=58.91672</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000'), ('0:01:30.600000', '0:01:41.180000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=90.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G', 'A:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:08.120000')]</t>
+          <t>('0:04:43.980000', '0:04:52.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+          <t>('0:00:27.290000', '0:00:33.090000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=27.29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
